--- a/image/catalogentry.xlsx
+++ b/image/catalogentry.xlsx
@@ -770,43 +770,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.39453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.04296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="199.32421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="205.20703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="53.26171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.75390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="53.34765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="35.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/catalogentry.xlsx
+++ b/image/catalogentry.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="201">
   <si>
     <t>Path</t>
   </si>
@@ -561,6 +561,19 @@
   </si>
   <si>
     <t>Notes and comments about this catalog entry.</t>
+  </si>
+  <si>
+    <t>CatalogEntry.estimatedDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration
+</t>
+  </si>
+  <si>
+    <t>Estimated duration of the orderable item</t>
+  </si>
+  <si>
+    <t>Estimated duration of the orderable item of this  entry of the catalog.</t>
   </si>
   <si>
     <t>CatalogEntry.billingCode</t>
@@ -761,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3429,7 +3442,7 @@
         <v>39</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>38</v>
@@ -3438,7 +3451,7 @@
         <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>176</v>
@@ -3474,13 +3487,13 @@
         <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>38</v>
@@ -3504,7 +3517,7 @@
         <v>39</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>38</v>
@@ -3513,7 +3526,7 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -3521,7 +3534,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3532,7 +3545,7 @@
         <v>39</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>38</v>
@@ -3544,13 +3557,13 @@
         <v>48</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3577,13 +3590,13 @@
         <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>38</v>
@@ -3601,13 +3614,13 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>38</v>
@@ -3644,7 +3657,7 @@
         <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>108</v>
@@ -3822,7 +3835,7 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -3830,7 +3843,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3856,10 +3869,10 @@
         <v>108</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3910,7 +3923,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -3928,6 +3941,109 @@
         <v>38</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>38</v>
       </c>
     </row>

--- a/image/catalogentry.xlsx
+++ b/image/catalogentry.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="201">
   <si>
     <t>Path</t>
   </si>
@@ -561,6 +561,19 @@
   </si>
   <si>
     <t>Notes and comments about this catalog entry.</t>
+  </si>
+  <si>
+    <t>CatalogEntry.estimatedDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration
+</t>
+  </si>
+  <si>
+    <t>Estimated duration of the orderable item</t>
+  </si>
+  <si>
+    <t>Estimated duration of the orderable item of this  entry of the catalog.</t>
   </si>
   <si>
     <t>CatalogEntry.billingCode</t>
@@ -761,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -770,43 +783,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.39453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.04296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="199.32421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="205.20703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="53.26171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.75390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="53.34765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="35.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3429,7 +3442,7 @@
         <v>39</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>38</v>
@@ -3438,7 +3451,7 @@
         <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>176</v>
@@ -3474,13 +3487,13 @@
         <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>38</v>
@@ -3504,7 +3517,7 @@
         <v>39</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>38</v>
@@ -3513,7 +3526,7 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -3521,7 +3534,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3532,7 +3545,7 @@
         <v>39</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>38</v>
@@ -3544,13 +3557,13 @@
         <v>48</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3577,13 +3590,13 @@
         <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>38</v>
@@ -3601,13 +3614,13 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>38</v>
@@ -3644,7 +3657,7 @@
         <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>108</v>
@@ -3822,7 +3835,7 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -3830,7 +3843,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3856,10 +3869,10 @@
         <v>108</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3910,7 +3923,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -3928,6 +3941,109 @@
         <v>38</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>38</v>
       </c>
     </row>

--- a/image/catalogentry.xlsx
+++ b/image/catalogentry.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="200">
   <si>
     <t>Path</t>
   </si>
@@ -162,7 +162,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -349,10 +349,6 @@
   </si>
   <si>
     <t>CatalogEntry.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Displayable name assigned to the catalog entry</t>
@@ -783,43 +779,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.04296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="205.20703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="199.32421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="53.34765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="35.38671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="53.26171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.75390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2006,13 +2002,13 @@
         <v>48</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2027,7 +2023,7 @@
         <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>38</v>
@@ -2086,7 +2082,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2112,10 +2108,10 @@
         <v>66</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2130,26 +2126,26 @@
         <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W13" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="T13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W13" t="s" s="2">
+      <c r="X13" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>38</v>
       </c>
@@ -2166,7 +2162,7 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>39</v>
@@ -2189,7 +2185,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2215,10 +2211,10 @@
         <v>66</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2233,26 +2229,26 @@
         <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="T14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>38</v>
       </c>
@@ -2269,7 +2265,7 @@
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
@@ -2292,7 +2288,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2315,13 +2311,13 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2372,7 +2368,7 @@
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2387,7 +2383,7 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
@@ -2395,7 +2391,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2418,13 +2414,13 @@
         <v>48</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2439,7 +2435,7 @@
         <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>38</v>
@@ -2475,7 +2471,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>47</v>
@@ -2498,7 +2494,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2521,13 +2517,13 @@
         <v>48</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2578,7 +2574,7 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>47</v>
@@ -2601,7 +2597,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2624,13 +2620,13 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2681,7 +2677,7 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
@@ -2693,7 +2689,7 @@
         <v>38</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>38</v>
@@ -2704,7 +2700,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2727,13 +2723,13 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2784,30 +2780,30 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2836,7 +2832,7 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>95</v>
@@ -2889,7 +2885,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -2907,16 +2903,16 @@
         <v>38</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -2938,10 +2934,10 @@
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>95</v>
@@ -2996,7 +2992,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3019,7 +3015,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3045,10 +3041,10 @@
         <v>66</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3075,14 +3071,14 @@
         <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>161</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>38</v>
       </c>
@@ -3099,7 +3095,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>47</v>
@@ -3122,7 +3118,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3145,13 +3141,13 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3202,7 +3198,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>47</v>
@@ -3225,7 +3221,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3248,13 +3244,13 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3305,7 +3301,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3320,7 +3316,7 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
@@ -3328,7 +3324,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3351,13 +3347,13 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3408,7 +3404,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3431,7 +3427,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3454,13 +3450,13 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3511,7 +3507,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3534,7 +3530,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3557,13 +3553,13 @@
         <v>48</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3590,14 +3586,14 @@
         <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="X27" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="X27" t="s" s="2">
+      <c r="Y27" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>38</v>
       </c>
@@ -3614,7 +3610,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -3629,7 +3625,7 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
@@ -3637,7 +3633,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3660,13 +3656,13 @@
         <v>48</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3717,7 +3713,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -3732,7 +3728,7 @@
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -3740,7 +3736,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3763,13 +3759,13 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3820,7 +3816,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -3835,7 +3831,7 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -3843,7 +3839,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3866,13 +3862,13 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3923,7 +3919,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -3946,7 +3942,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3969,13 +3965,13 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4026,7 +4022,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
